--- a/schools.xlsx
+++ b/schools.xlsx
@@ -67,7 +67,7 @@
     <t>TR ANTALYA04</t>
   </si>
   <si>
-    <t>ALANYA UNIVERSITY</t>
+    <t>Škola Háke</t>
   </si>
   <si>
     <t>Alanya</t>
@@ -1096,7 +1096,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1131,13 +1131,13 @@
   <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
